--- a/01-Excel/01-Activites/2/Activities/02-Ins_NamedRanges/Solved/ShoppingTrip.xlsx
+++ b/01-Excel/01-Activites/2/Activities/02-Ins_NamedRanges/Solved/ShoppingTrip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\Documents\WorkAndSchool\TeachingAssistant\DataViz\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\2\Activities\02-Ins_NamedRanges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/2/Activities/02-Ins_NamedRanges/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="DC6A508CB724DE4F1551BDFB3918CC2CF653C664" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{92A167DC-55F9-44DC-860D-3D15655D96C2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8A3B0C-0820-2F41-9096-53CD8AE0EAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="443" windowWidth="25598" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping Trip" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,22 @@
     <definedName name="TaxPrice">'Shopping Trip'!$D$2:$D$6</definedName>
     <definedName name="TaxRate">'Shopping Trip'!$G$2</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -499,15 +508,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -543,7 +552,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -559,7 +568,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -578,7 +587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -598,7 +607,7 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
